--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBA724-BAE1-4F21-B2B3-853B1E1397D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B42B38-4938-4B3A-B28D-2D9C7D350F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E66E75F-A3EA-49CE-AEA5-5AAD269A14F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{367A6E6A-E8E5-46D9-8996-07A41E65803E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80D6B2B-89EB-48C4-B146-177C0902E42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5467ED2D-ECC1-4C48-8D80-2DD57E75580C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B42B38-4938-4B3A-B28D-2D9C7D350F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8727343-077C-410C-9BFB-743953D7A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{367A6E6A-E8E5-46D9-8996-07A41E65803E}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{5146931E-3D25-4800-A276-5DE74BFA5E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5467ED2D-ECC1-4C48-8D80-2DD57E75580C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D47F5-CDBD-4822-8CF3-50EECCE1F2E9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/AngVel/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8727343-077C-410C-9BFB-743953D7A6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69903EAD-7F01-4030-86A7-FF19C1CA1978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{5146931E-3D25-4800-A276-5DE74BFA5E1A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{8BC277E8-7B11-4F6B-BFC4-634996CD1AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908D47F5-CDBD-4822-8CF3-50EECCE1F2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3BC6C3-8E65-4BDA-90B0-6469CA977521}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
